--- a/old/Input files/input_summary_correlations.xlsx
+++ b/old/Input files/input_summary_correlations.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay Petrov\Python\NPSoftware\Input files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_current\MAPAS\GitHub\old\Input files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A88EA-36F8-4C61-BAE6-4AF7F15BC5FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776F996C-87A6-4DF4-832D-B5BA360D3475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DA9594DD-E25F-4296-B36E-65FA1BCA4E3F}"/>
+    <workbookView xWindow="-20520" yWindow="1305" windowWidth="20640" windowHeight="11310" xr2:uid="{DA9594DD-E25F-4296-B36E-65FA1BCA4E3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -421,7 +424,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,30 +450,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2.7562197556789993E-2</v>
+        <v>0.41151758139465222</v>
       </c>
       <c r="D2">
-        <v>0.44473621323567436</v>
+        <v>7.2216089223491814E-33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3">
-        <v>8.863925553784912E-3</v>
+        <v>-1.3945398813436441E-2</v>
       </c>
       <c r="D3">
-        <v>0.80589193392306857</v>
+        <v>0.69904432335983679</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -478,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1.3945398813436441E-2</v>
+        <v>0.41971092146438738</v>
       </c>
       <c r="D4">
-        <v>0.69904432335983679</v>
+        <v>2.9883459484138916E-34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -492,13 +495,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0.41971092146438738</v>
+        <v>0.30880234016481622</v>
       </c>
       <c r="D5">
-        <v>2.9883459484138916E-34</v>
+        <v>1.6947745359951896E-18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -506,13 +509,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>0.41151758139465222</v>
+        <v>0.31021285954435546</v>
       </c>
       <c r="D6">
-        <v>7.2216089223491814E-33</v>
+        <v>1.1639525932549579E-18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -520,13 +523,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0.31021285954435546</v>
+        <v>8.2552387178618458E-2</v>
       </c>
       <c r="D7">
-        <v>1.1639525932549579E-18</v>
+        <v>2.1881559731980894E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -534,83 +537,83 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>0.30880234016481622</v>
+        <v>8.3876985445742028E-2</v>
       </c>
       <c r="D8">
-        <v>1.6947745359951896E-18</v>
+        <v>1.9841601538908796E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>8.2552387178618458E-2</v>
+        <v>-1.7312502934941361E-2</v>
       </c>
       <c r="D9">
-        <v>2.1881559731980894E-2</v>
+        <v>0.63124849066254685</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>8.3876985445742028E-2</v>
+        <v>0.33349104426195447</v>
       </c>
       <c r="D10">
-        <v>1.9841601538908796E-2</v>
+        <v>1.7516946601441437E-21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-0.12050616755754025</v>
+        <v>0.23778046883351572</v>
       </c>
       <c r="D11">
-        <v>7.9975996964741286E-4</v>
+        <v>2.2645520848498546E-11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>0.10744555522749259</v>
+        <v>0.25401271342924236</v>
       </c>
       <c r="D12">
-        <v>2.8150887354219602E-3</v>
+        <v>8.1001672703595851E-13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>7.7684552766456319E-2</v>
+        <v>8.6761954213876669E-2</v>
       </c>
       <c r="D13">
-        <v>3.1019806611287476E-2</v>
+        <v>1.5963628517415278E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -618,139 +621,139 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>-1.7312502934941361E-2</v>
+        <v>0.14981297322074927</v>
       </c>
       <c r="D14">
-        <v>0.63124849066254685</v>
+        <v>2.957898374103852E-5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>0.33349104426195447</v>
+        <v>2.7562197556789993E-2</v>
       </c>
       <c r="D15">
-        <v>1.7516946601441437E-21</v>
+        <v>0.44473621323567436</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>0.25401271342924236</v>
+        <v>8.863925553784912E-3</v>
       </c>
       <c r="D16">
-        <v>8.1001672703595851E-13</v>
+        <v>0.80589193392306857</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.23778046883351572</v>
+        <v>-0.12050616755754025</v>
       </c>
       <c r="D17">
-        <v>2.2645520848498546E-11</v>
+        <v>7.9975996964741286E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18">
-        <v>8.6761954213876669E-2</v>
+        <v>0.10744555522749259</v>
       </c>
       <c r="D18">
-        <v>1.5963628517415278E-2</v>
+        <v>2.8150887354219602E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19">
-        <v>0.14981297322074927</v>
+        <v>7.7684552766456319E-2</v>
       </c>
       <c r="D19">
-        <v>2.957898374103852E-5</v>
+        <v>3.1019806611287476E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>0.56850685671198475</v>
+        <v>-0.6739111465155766</v>
       </c>
       <c r="D20">
-        <v>3.2728155162363469E-67</v>
+        <v>3.4067574756985951E-103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>0.70424436053290695</v>
+        <v>0.7805346045144288</v>
       </c>
       <c r="D21">
-        <v>1.615458498693802E-116</v>
+        <v>4.5495235525869549E-159</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
       <c r="C22">
-        <v>9.94718493679808E-2</v>
+        <v>0.15694469190268892</v>
       </c>
       <c r="D22">
-        <v>5.7027405442077444E-3</v>
+        <v>1.197990736786895E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>6.7987515693457096E-2</v>
+        <v>4.1916483980321349E-2</v>
       </c>
       <c r="D23">
-        <v>5.9170765093598712E-2</v>
+        <v>0.24502721961510354</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -758,69 +761,69 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>-0.6739111465155766</v>
+        <v>3.0023042626747029E-2</v>
       </c>
       <c r="D24">
-        <v>3.4067574756985951E-103</v>
+        <v>0.40513720815328791</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>0.7805346045144288</v>
+        <v>0.56850685671198475</v>
       </c>
       <c r="D25">
-        <v>4.5495235525869549E-159</v>
+        <v>3.2728155162363469E-67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>0.15694469190268892</v>
+        <v>0.70424436053290695</v>
       </c>
       <c r="D26">
-        <v>1.197990736786895E-5</v>
+        <v>1.615458498693802E-116</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27">
-        <v>4.1916483980321349E-2</v>
+        <v>9.94718493679808E-2</v>
       </c>
       <c r="D27">
-        <v>0.24502721961510354</v>
+        <v>5.7027405442077444E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28">
-        <v>3.0023042626747029E-2</v>
+        <v>6.7987515693457096E-2</v>
       </c>
       <c r="D28">
-        <v>0.40513720815328791</v>
+        <v>5.9170765093598712E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,6 +841,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition ref="A2:A29"/>
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>